--- a/data/output/FV2504_FV2410/UTILTS/25008.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25008.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="220">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1912" uniqueCount="220">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -806,6 +806,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U84" totalsRowShown="0">
+  <autoFilter ref="A1:U84"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1095,7 +1125,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -5190,5 +5223,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILTS/25008.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25008.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2309" uniqueCount="303">
   <si>
     <t>#</t>
   </si>
@@ -4024,54 +4024,52 @@
       <c r="V50" s="9"/>
     </row>
     <row r="51" spans="1:22">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5" t="s">
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="K51" s="5" t="s">
+      <c r="K51" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="L51" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M51" s="5" t="s">
+      <c r="L51" s="4"/>
+      <c r="M51" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N51" s="5" t="s">
+      <c r="N51" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O51" s="5" t="s">
+      <c r="O51" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P51" s="5"/>
-      <c r="Q51" s="5" t="s">
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R51" s="5"/>
-      <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5" t="s">
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="V51" s="5" t="s">
+      <c r="V51" s="2" t="s">
         <v>197</v>
       </c>
     </row>
@@ -4105,9 +4103,7 @@
         <v>175</v>
       </c>
       <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="L52" s="4"/>
       <c r="M52" s="5" t="s">
         <v>32</v>
       </c>
@@ -4296,52 +4292,50 @@
       <c r="V55" s="9"/>
     </row>
     <row r="56" spans="1:22">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5" t="s">
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G56" s="5"/>
-      <c r="H56" s="5"/>
-      <c r="I56" s="5"/>
-      <c r="J56" s="5" t="s">
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M56" s="5" t="s">
+      <c r="K56" s="2"/>
+      <c r="L56" s="4"/>
+      <c r="M56" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N56" s="5" t="s">
+      <c r="N56" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="O56" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P56" s="5"/>
-      <c r="Q56" s="5" t="s">
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="R56" s="5"/>
-      <c r="S56" s="5"/>
-      <c r="T56" s="5"/>
-      <c r="U56" s="5" t="s">
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V56" s="5"/>
+      <c r="V56" s="2"/>
     </row>
     <row r="57" spans="1:22">
       <c r="A57" s="5" t="s">
@@ -4373,9 +4367,7 @@
         <v>175</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>33</v>
       </c>
@@ -4433,9 +4425,7 @@
       <c r="K58" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="L58" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>33</v>
       </c>
@@ -4493,9 +4483,7 @@
         <v>175</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>
@@ -4524,44 +4512,42 @@
       <c r="V59" s="5"/>
     </row>
     <row r="60" spans="1:22">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="5" t="s">
+      <c r="C60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5"/>
-      <c r="F60" s="5"/>
-      <c r="G60" s="5"/>
-      <c r="H60" s="5"/>
-      <c r="I60" s="5"/>
-      <c r="J60" s="5" t="s">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M60" s="5" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="4"/>
+      <c r="M60" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N60" s="5" t="s">
+      <c r="N60" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O60" s="5"/>
-      <c r="P60" s="5"/>
-      <c r="Q60" s="5"/>
-      <c r="R60" s="5"/>
-      <c r="S60" s="5"/>
-      <c r="T60" s="5"/>
-      <c r="U60" s="5" t="s">
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V60" s="5"/>
+      <c r="V60" s="2"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4699,9 +4685,7 @@
         <v>175</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -4728,46 +4712,44 @@
       <c r="V63" s="5"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5"/>
-      <c r="F64" s="5"/>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="K64" s="5" t="s">
+      <c r="K64" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M64" s="5" t="s">
+      <c r="L64" s="4"/>
+      <c r="M64" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="O64" s="5"/>
-      <c r="P64" s="5"/>
-      <c r="Q64" s="5"/>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="V64" s="5" t="s">
+      <c r="V64" s="2" t="s">
         <v>200</v>
       </c>
     </row>
@@ -4940,46 +4922,44 @@
       </c>
     </row>
     <row r="68" spans="1:22">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="5"/>
-      <c r="H68" s="5"/>
-      <c r="I68" s="5"/>
-      <c r="J68" s="5" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K68" s="5" t="s">
+      <c r="K68" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="L68" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M68" s="5" t="s">
+      <c r="L68" s="4"/>
+      <c r="M68" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N68" s="5" t="s">
+      <c r="N68" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O68" s="5"/>
-      <c r="P68" s="5"/>
-      <c r="Q68" s="5"/>
-      <c r="R68" s="5"/>
-      <c r="S68" s="5"/>
-      <c r="T68" s="5"/>
-      <c r="U68" s="5" t="s">
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="V68" s="5" t="s">
+      <c r="V68" s="2" t="s">
         <v>202</v>
       </c>
     </row>
@@ -5420,44 +5400,42 @@
       </c>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D77" s="5"/>
-      <c r="E77" s="5"/>
-      <c r="F77" s="5"/>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="M77" s="5" t="s">
+      <c r="K77" s="2"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="O77" s="5"/>
-      <c r="P77" s="5"/>
-      <c r="Q77" s="5"/>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V77" s="5"/>
+      <c r="V77" s="2"/>
     </row>
     <row r="78" spans="1:22">
       <c r="A78" s="5" t="s">
@@ -5655,9 +5633,7 @@
         <v>175</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>205</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>38</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILTS/25008.xlsx
+++ b/data/output/FV2504_FV2410/UTILTS/25008.xlsx
@@ -1512,7 +1512,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2220,7 +2220,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2532,7 +2532,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2732,7 +2732,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3106,7 +3106,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3420,7 +3420,7 @@
         <v>194</v>
       </c>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3622,7 +3622,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -3784,7 +3784,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4050,7 +4050,7 @@
         <v>197</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4316,7 +4316,7 @@
       </c>
       <c r="K56" s="2"/>
       <c r="L56" s="4"/>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N56" s="2" t="s">
@@ -4532,7 +4532,7 @@
       </c>
       <c r="K60" s="2"/>
       <c r="L60" s="4"/>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N60" s="2" t="s">
@@ -4734,7 +4734,7 @@
         <v>200</v>
       </c>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -4944,7 +4944,7 @@
         <v>202</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5072,52 +5072,52 @@
       <c r="V70" s="5"/>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="5" t="s">
+      <c r="D71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E71" s="5"/>
+      <c r="E71" s="2"/>
       <c r="F71" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="2"/>
       <c r="L71" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M71" s="5" t="s">
+      <c r="M71" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O71" s="5" t="s">
+      <c r="O71" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="P71" s="5"/>
+      <c r="P71" s="2"/>
       <c r="Q71" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V71" s="5"/>
+      <c r="V71" s="2"/>
     </row>
     <row r="72" spans="1:22">
       <c r="A72" s="5" t="s">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="K77" s="2"/>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -5660,48 +5660,48 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C82" s="5"/>
-      <c r="D82" s="5" t="s">
+      <c r="C82" s="2"/>
+      <c r="D82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E82" s="5"/>
+      <c r="E82" s="2"/>
       <c r="F82" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="K82" s="5"/>
+      <c r="K82" s="2"/>
       <c r="L82" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="M82" s="5" t="s">
+      <c r="M82" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N82" s="5"/>
-      <c r="O82" s="5" t="s">
+      <c r="N82" s="2"/>
+      <c r="O82" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P82" s="5"/>
+      <c r="P82" s="2"/>
       <c r="Q82" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
